--- a/GKHNNC/Files/1851/Osmotr.xlsx
+++ b/GKHNNC/Files/1851/Osmotr.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27225" windowHeight="13065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="3. Работы по ДТР" sheetId="2" r:id="rId1"/>
     <sheet name="Акт" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="169">
   <si>
     <t xml:space="preserve">УТВЕРЖДАЮ: </t>
   </si>
@@ -85,331 +85,355 @@
     <t>Приямки</t>
   </si>
   <si>
+    <t>Вход в подъезд</t>
+  </si>
+  <si>
+    <t>Козырьки</t>
+  </si>
+  <si>
+    <t>Крыльца</t>
+  </si>
+  <si>
+    <t>Фасад</t>
+  </si>
+  <si>
+    <t>Балконные плиты</t>
+  </si>
+  <si>
+    <t>Межпанельные швы</t>
+  </si>
+  <si>
+    <t>Сборный железобетон</t>
+  </si>
+  <si>
+    <t>пог.м</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Нумерация</t>
+  </si>
+  <si>
+    <t>Нумерация подъездов</t>
+  </si>
+  <si>
     <t>шт</t>
   </si>
   <si>
-    <t>Вход в подъезд</t>
-  </si>
-  <si>
-    <t>Козырьки</t>
-  </si>
-  <si>
-    <t>Крыльца</t>
+    <t>Доска объявлений</t>
+  </si>
+  <si>
+    <t>нормативное сост.</t>
+  </si>
+  <si>
+    <t>Крыша</t>
+  </si>
+  <si>
+    <t>Кровельное покрытие</t>
+  </si>
+  <si>
+    <t>шифер</t>
+  </si>
+  <si>
+    <t>Выходы на кровлю</t>
+  </si>
+  <si>
+    <t>Дерево</t>
+  </si>
+  <si>
+    <t>Чердачные люки и двери</t>
+  </si>
+  <si>
+    <t>Ограждение</t>
+  </si>
+  <si>
+    <t>Сталь черная</t>
+  </si>
+  <si>
+    <t>Вентиляционные каналы и шахты</t>
+  </si>
+  <si>
+    <t>Чердачные продухи</t>
+  </si>
+  <si>
+    <t>Лестницы на чердак</t>
+  </si>
+  <si>
+    <t>Утеплитель</t>
+  </si>
+  <si>
+    <t>Подвал</t>
+  </si>
+  <si>
+    <t>Подвальные окна</t>
+  </si>
+  <si>
+    <t>фанера</t>
+  </si>
+  <si>
+    <t>Входы в подвал</t>
+  </si>
+  <si>
+    <t>Отделка</t>
+  </si>
+  <si>
+    <t>Подвальные двери</t>
+  </si>
+  <si>
+    <t>металл</t>
+  </si>
+  <si>
+    <t>Двери в тепловые узлы</t>
+  </si>
+  <si>
+    <t>Лестничная клетка</t>
+  </si>
+  <si>
+    <t>Двери входные</t>
+  </si>
+  <si>
+    <t>Дерево\Металл</t>
+  </si>
+  <si>
+    <t>Оконные блоки</t>
+  </si>
+  <si>
+    <t>Пластик</t>
+  </si>
+  <si>
+    <t>Остекление</t>
+  </si>
+  <si>
+    <t>стеклопакет</t>
+  </si>
+  <si>
+    <t>Лестничное ограждение и перила</t>
+  </si>
+  <si>
+    <t>Почтовые ящики</t>
+  </si>
+  <si>
+    <t>Ступени</t>
+  </si>
+  <si>
+    <t>Двери тамбурные</t>
+  </si>
+  <si>
+    <t>Лестничные площадки</t>
+  </si>
+  <si>
+    <t>Подоконники</t>
+  </si>
+  <si>
+    <t>Металлические решетки на окна</t>
+  </si>
+  <si>
+    <t>Мусоропровод</t>
+  </si>
+  <si>
+    <t>Электрооборудование</t>
+  </si>
+  <si>
+    <t>Подъездные светильники</t>
+  </si>
+  <si>
+    <t>Электротехническое изделие</t>
+  </si>
+  <si>
+    <t>Уличные светильники</t>
+  </si>
+  <si>
+    <t>Подвальные светильники</t>
+  </si>
+  <si>
+    <t>ВРУ</t>
+  </si>
+  <si>
+    <t>Этажные щитки</t>
+  </si>
+  <si>
+    <t>Магистральная электропроводка</t>
+  </si>
+  <si>
+    <t>Вводы</t>
+  </si>
+  <si>
+    <t>Герметизация ввода</t>
+  </si>
+  <si>
+    <t>Отопление</t>
+  </si>
+  <si>
+    <t>Трубопровод отопления 50-100</t>
+  </si>
+  <si>
+    <t>аварийное тех. сост.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Полностью отсутстует</t>
+  </si>
+  <si>
+    <t>Дефект</t>
+  </si>
+  <si>
+    <t>герметизация вводов и выводов трубопроводов отопления отсутствуют (транзитная)</t>
+  </si>
+  <si>
+    <t>Трубопровод отопления до 50</t>
+  </si>
+  <si>
+    <t>ограничено-раб. сост.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      истек нормативный срок эксплуатации</t>
+  </si>
+  <si>
+    <t>требуется замена трубопроводов внутри квартир, верхнего розлива</t>
+  </si>
+  <si>
+    <t>Вентили</t>
+  </si>
+  <si>
+    <t>износ вентилей верхнего розлива в связи с длительным эксплуатацией</t>
+  </si>
+  <si>
+    <t>Задвижки</t>
+  </si>
+  <si>
+    <t>износ задвижек верхнего розлива в связи с длительным эксплуатацией</t>
+  </si>
+  <si>
+    <t>Теплоизоляция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      разрушение отдельными участками</t>
+  </si>
+  <si>
+    <t>требуется замена теплоизоляции верхнего розлива в связи с длительным эксплуатацией</t>
+  </si>
+  <si>
+    <t>Подъездное отопление</t>
+  </si>
+  <si>
+    <t>Узел управления</t>
+  </si>
+  <si>
+    <t>Ввод Dу</t>
+  </si>
+  <si>
+    <t>мм</t>
+  </si>
+  <si>
+    <t>D сопла</t>
+  </si>
+  <si>
+    <t>Манометр</t>
+  </si>
+  <si>
+    <t>Термометр</t>
+  </si>
+  <si>
+    <t>Латунь</t>
+  </si>
+  <si>
+    <t>Грязевик</t>
+  </si>
+  <si>
+    <t>Окраска</t>
+  </si>
+  <si>
+    <t>Терморегулятор</t>
+  </si>
+  <si>
+    <t>ГВС, ХВС</t>
+  </si>
+  <si>
+    <t>Трубопровод ГВС до 50</t>
+  </si>
+  <si>
+    <t>Сталь оцинкованная</t>
+  </si>
+  <si>
+    <t>Трубопровод ХВС до 50</t>
+  </si>
+  <si>
+    <t>герметизация вводов и выводов труб холодного водоснабжения (транзит) отсутствуют</t>
+  </si>
+  <si>
+    <t>Трубопровод ГВС 50-100</t>
+  </si>
+  <si>
+    <t>Трубопровод ХВС 50-100</t>
+  </si>
+  <si>
+    <t>Стояки</t>
+  </si>
+  <si>
+    <t>Канализация</t>
+  </si>
+  <si>
+    <t>Трубопровод 50-100</t>
+  </si>
+  <si>
+    <t>Трубопровод до 50</t>
+  </si>
+  <si>
+    <t>Ревизии</t>
+  </si>
+  <si>
+    <t>Малые формы</t>
+  </si>
+  <si>
+    <t>Внутридомовая территория</t>
+  </si>
+  <si>
+    <t>Урны</t>
+  </si>
+  <si>
+    <t>Лавочки</t>
+  </si>
+  <si>
+    <t>Проезды</t>
+  </si>
+  <si>
+    <t>асфальт</t>
+  </si>
+  <si>
+    <t>Контейнерная площадка</t>
+  </si>
+  <si>
+    <t>Подходы</t>
+  </si>
+  <si>
+    <t>Бордюры</t>
+  </si>
+  <si>
+    <t>Железобетон</t>
+  </si>
+  <si>
+    <t>Зеленые посадки</t>
+  </si>
+  <si>
+    <t>Деревья</t>
+  </si>
+  <si>
+    <t>Кустарники</t>
+  </si>
+  <si>
+    <t>Водоотведение</t>
   </si>
   <si>
     <t>Водосточные трубы</t>
   </si>
   <si>
-    <t>Сталь оцинкованная</t>
-  </si>
-  <si>
-    <t>м</t>
-  </si>
-  <si>
-    <t>Фасад</t>
-  </si>
-  <si>
-    <t>Балконные плиты</t>
-  </si>
-  <si>
-    <t>Межпанельные швы</t>
-  </si>
-  <si>
-    <t>Сборный железобетон</t>
-  </si>
-  <si>
-    <t>м/пог</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>Нумерация</t>
-  </si>
-  <si>
-    <t>Нумерация подъездов</t>
-  </si>
-  <si>
-    <t>Доска объявлений</t>
-  </si>
-  <si>
-    <t>нормативное сост.</t>
-  </si>
-  <si>
-    <t>Крыша</t>
-  </si>
-  <si>
-    <t>Кровельное покрытие</t>
-  </si>
-  <si>
-    <t>шифер</t>
-  </si>
-  <si>
-    <t>Выходы на кровлю</t>
-  </si>
-  <si>
-    <t>Дерево</t>
-  </si>
-  <si>
-    <t>Чердачные люки и двери</t>
-  </si>
-  <si>
-    <t>Ограждение</t>
-  </si>
-  <si>
-    <t>Сталь черная</t>
-  </si>
-  <si>
-    <t>пог.м</t>
-  </si>
-  <si>
-    <t>Вентиляционные каналы и шахты</t>
-  </si>
-  <si>
-    <t>Чердачные продухи</t>
-  </si>
-  <si>
-    <t>Лестницы на чердак</t>
-  </si>
-  <si>
-    <t>Утеплитель</t>
-  </si>
-  <si>
-    <t>м3</t>
-  </si>
-  <si>
-    <t>Подвал</t>
-  </si>
-  <si>
-    <t>Подвальные окна</t>
-  </si>
-  <si>
-    <t>фанера</t>
-  </si>
-  <si>
-    <t>Входы в подвал</t>
-  </si>
-  <si>
-    <t>Отделка</t>
-  </si>
-  <si>
-    <t>Подвальные двери</t>
-  </si>
-  <si>
-    <t>металл</t>
-  </si>
-  <si>
-    <t>Двери в тепловые узлы</t>
-  </si>
-  <si>
-    <t>Лестничная клетка</t>
-  </si>
-  <si>
-    <t>Двери входные и тамбурные</t>
-  </si>
-  <si>
-    <t>Дерево\Металл</t>
-  </si>
-  <si>
-    <t>Оконные блоки</t>
-  </si>
-  <si>
-    <t>Пластик</t>
-  </si>
-  <si>
-    <t>Остекление</t>
-  </si>
-  <si>
-    <t>стеклопакет</t>
-  </si>
-  <si>
-    <t>Лестничное ограждение и перила</t>
-  </si>
-  <si>
-    <t>Почтовые ящики</t>
-  </si>
-  <si>
-    <t>Ступени</t>
-  </si>
-  <si>
-    <t>Мусоропровод</t>
-  </si>
-  <si>
-    <t>Электрооборудование</t>
-  </si>
-  <si>
-    <t>Герметизация ввода</t>
-  </si>
-  <si>
-    <t>Электротехническое изделие</t>
-  </si>
-  <si>
-    <t>Подъездные светильники</t>
-  </si>
-  <si>
-    <t>Уличные светильники</t>
-  </si>
-  <si>
-    <t>Подвальные светильники</t>
-  </si>
-  <si>
-    <t>ВРУ</t>
-  </si>
-  <si>
-    <t>Этажные щитки</t>
-  </si>
-  <si>
-    <t>Магистральная электропроводка</t>
-  </si>
-  <si>
-    <t>Вводы</t>
-  </si>
-  <si>
-    <t>Отопление</t>
-  </si>
-  <si>
-    <t>Трубопроводы отопления</t>
-  </si>
-  <si>
-    <t>ограничено-раб. сост.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      истек нормативный срок эксплуатации</t>
-  </si>
-  <si>
-    <t>Дефект</t>
-  </si>
-  <si>
-    <t>требуется замена трубопроводов внутри квартир, верхнего розлива</t>
-  </si>
-  <si>
-    <t>Вентили</t>
-  </si>
-  <si>
-    <t>износ вентилей верхнего розлива в связи с длительным эксплуатацией</t>
-  </si>
-  <si>
-    <t>Задвижки</t>
-  </si>
-  <si>
-    <t>износ задвижек верхнего розлива в связи с длительным эксплуатацией</t>
-  </si>
-  <si>
-    <t>Теплоизоляция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      разрушение отдельными участками</t>
-  </si>
-  <si>
-    <t>требуется замена теплоизоляции верхнего розлива в связи с длительным эксплуатацией</t>
-  </si>
-  <si>
-    <t>Подъездное отопление</t>
-  </si>
-  <si>
-    <t>аварийное тех. сост.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Полностью отсутстует</t>
-  </si>
-  <si>
-    <t>герметизация вводов и выводов трубопроводов отопления отсутствуют (транзитная)</t>
-  </si>
-  <si>
-    <t>Узел управления</t>
-  </si>
-  <si>
-    <t>Ввод Dу</t>
-  </si>
-  <si>
-    <t>мм</t>
-  </si>
-  <si>
-    <t>D сопла</t>
-  </si>
-  <si>
-    <t>Манометр</t>
-  </si>
-  <si>
-    <t>Термометр</t>
-  </si>
-  <si>
-    <t>Латунь</t>
-  </si>
-  <si>
-    <t>Грязевик</t>
-  </si>
-  <si>
-    <t>Окраска</t>
-  </si>
-  <si>
-    <t>Терморегулятор</t>
-  </si>
-  <si>
-    <t>ГВС, ХВС</t>
-  </si>
-  <si>
-    <t>Трубопровод ГВС</t>
-  </si>
-  <si>
-    <t>Трубопровод ХВС</t>
-  </si>
-  <si>
-    <t>герметизация вводов и выводов труб холодного водоснабжения (транзит) отсутствуют</t>
-  </si>
-  <si>
-    <t>Канализация</t>
-  </si>
-  <si>
-    <t>Трубопровод</t>
-  </si>
-  <si>
-    <t>Ревизии</t>
-  </si>
-  <si>
-    <t>Малые формы</t>
-  </si>
-  <si>
-    <t>Внутридомовая территория</t>
-  </si>
-  <si>
-    <t>Урны</t>
-  </si>
-  <si>
-    <t>Лавочки</t>
-  </si>
-  <si>
-    <t>Проезды</t>
-  </si>
-  <si>
-    <t>асфальт</t>
-  </si>
-  <si>
-    <t>Подходы</t>
-  </si>
-  <si>
-    <t>Бордюры</t>
-  </si>
-  <si>
-    <t>Железобетон</t>
-  </si>
-  <si>
-    <t>Зеленые посадки</t>
-  </si>
-  <si>
-    <t>Деревья</t>
-  </si>
-  <si>
-    <t>Кустарники</t>
-  </si>
-  <si>
-    <t>Водоотведение</t>
-  </si>
-  <si>
     <t>Отметы водостоков</t>
   </si>
   <si>
     <t>Водоприемные воронки</t>
+  </si>
+  <si>
+    <t>Водоотводные лотки</t>
   </si>
   <si>
     <t>Балконы</t>
@@ -508,7 +532,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -797,9 +821,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -832,9 +856,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1030,31 +1054,31 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="F1" s="15" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7">
       <c r="F2" s="15" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7">
       <c r="F3" s="15" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7">
       <c r="F4" s="15" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="50.1" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1065,30 +1089,30 @@
     </row>
     <row r="6" spans="1:7" ht="45" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -1102,10 +1126,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D8" s="18">
         <v>37</v>
@@ -1123,10 +1147,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D9" s="18">
         <v>37</v>
@@ -1144,10 +1168,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D10" s="18">
         <v>4</v>
@@ -1165,10 +1189,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D11" s="19">
         <v>37</v>
@@ -1186,10 +1210,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D12" s="18">
         <v>120</v>
@@ -1216,10 +1240,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D14" s="18">
         <v>130.69999999999999</v>
@@ -1237,10 +1261,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D15" s="18">
         <v>1</v>
@@ -1253,45 +1277,45 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="18">
+    <row r="16" spans="1:7" ht="29.1" customHeight="1">
+      <c r="A16" s="19">
         <v>8</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="18">
+      <c r="B16" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="19">
         <v>1184.47</v>
       </c>
-      <c r="E16" s="18">
-        <v>97447.2</v>
-      </c>
-      <c r="F16" s="18">
-        <v>3.92</v>
-      </c>
-      <c r="G16" s="18"/>
+      <c r="E16" s="19">
+        <v>102319.56</v>
+      </c>
+      <c r="F16" s="19">
+        <v>4.12</v>
+      </c>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20">
-        <v>298881.64</v>
+        <v>303754</v>
       </c>
       <c r="F17" s="20">
-        <v>12.03</v>
+        <v>12.22</v>
       </c>
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -1302,7 +1326,7 @@
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -1313,7 +1337,7 @@
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -1324,7 +1348,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -1335,7 +1359,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -1365,7 +1389,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1513,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D13" s="9">
         <v>5</v>
@@ -1524,7 +1548,7 @@
     </row>
     <row r="14" spans="1:5" ht="18">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1533,7 +1557,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>16</v>
@@ -1550,13 +1574,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16" s="9">
         <v>3</v>
@@ -1565,44 +1589,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:5" ht="18">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18">
-      <c r="A18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="9">
+        <v>32</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D19" s="9">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>18</v>
@@ -1610,102 +1634,102 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18">
+      <c r="A21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18">
-      <c r="A22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="9">
+        <v>3</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D23" s="9">
         <v>3</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18">
+      <c r="A24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="9">
-        <v>3</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="18">
-      <c r="A25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
+      <c r="C25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="9">
+        <v>698</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="C26" s="9" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D26" s="9">
-        <v>698</v>
+        <v>8</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>18</v>
@@ -1713,16 +1737,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D27" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>18</v>
@@ -1730,16 +1754,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D28" s="9">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>18</v>
@@ -1747,16 +1771,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D29" s="9">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>18</v>
@@ -1764,16 +1788,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D30" s="9">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>18</v>
@@ -1781,16 +1805,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D31" s="9">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>18</v>
@@ -1798,59 +1822,59 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18">
+      <c r="A33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="9">
-        <v>3</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18">
-      <c r="A34" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
+      <c r="C34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="9">
+        <v>5</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D35" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>18</v>
@@ -1858,16 +1882,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D36" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>18</v>
@@ -1875,16 +1899,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>18</v>
@@ -1892,59 +1916,59 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D38" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="9">
-        <v>1</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="18">
-      <c r="A40" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
+    <row r="39" spans="1:5" ht="18">
+      <c r="A39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>18</v>
@@ -1952,67 +1976,67 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D42" s="9">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D43" s="9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D44" s="9">
         <v>0</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D45" s="9">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>18</v>
@@ -2020,16 +2044,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D46" s="9">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>18</v>
@@ -2037,102 +2061,102 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D47" s="9">
         <v>0</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="18">
-      <c r="A48" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="1:5" ht="18">
-      <c r="A49" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="8"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D50" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="9">
-        <v>18</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="9">
-        <v>4</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18">
+      <c r="A51" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" ht="18">
+      <c r="A52" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D53" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>18</v>
@@ -2140,33 +2164,33 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D54" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D55" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>18</v>
@@ -2174,303 +2198,303 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D56" s="9">
-        <v>880</v>
+        <v>1</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D57" s="9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18">
-      <c r="A58" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="8"/>
+    <row r="58" spans="1:5">
+      <c r="A58" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="9">
+        <v>880</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D59" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="9">
-        <v>0</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>83</v>
-      </c>
+      <c r="A60" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="9">
+        <v>2</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18">
+      <c r="A61" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
+      <c r="A62" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="9">
+        <v>0</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D63" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="C64" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D65" s="9">
         <v>0</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D67" s="9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="9">
-        <v>2</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="A68" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-    </row>
-    <row r="70" spans="1:5" ht="18">
-      <c r="A70" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="8"/>
+      <c r="A69" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="9">
+        <v>8</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="D71" s="9">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D72" s="9">
-        <v>0</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="A72" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D73" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="9">
-        <v>4</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>18</v>
-      </c>
+    <row r="74" spans="1:5" ht="18">
+      <c r="A74" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="D75" s="9">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>18</v>
@@ -2478,16 +2502,16 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="9" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="D76" s="9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>18</v>
@@ -2495,16 +2519,16 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D77" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>18</v>
@@ -2512,16 +2536,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D78" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>18</v>
@@ -2529,42 +2553,50 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="9" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D79" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="18">
-      <c r="A80" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="8"/>
+    <row r="80" spans="1:5">
+      <c r="A80" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" s="9">
+        <v>9</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D81" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>18</v>
@@ -2572,13 +2604,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D82" s="9">
         <v>0</v>
@@ -2589,89 +2621,93 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="9" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D83" s="9">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="9">
-        <v>5</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>18</v>
-      </c>
+    <row r="84" spans="1:5" ht="18">
+      <c r="A84" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="9" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D85" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C86" s="11" t="s">
+      <c r="A86" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-    </row>
-    <row r="87" spans="1:5" ht="18">
-      <c r="A87" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="8"/>
+      <c r="B86" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="9">
+        <v>0</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="9">
+        <v>18</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D88" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>18</v>
@@ -2679,188 +2715,192 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="9" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D89" s="9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="18">
-      <c r="A90" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="8"/>
-    </row>
-    <row r="91" spans="1:5" ht="18">
-      <c r="A91" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="8"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="9">
+        <v>0</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D92" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D93" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D94" s="9">
-        <v>0</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="18">
+      <c r="A94" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D95" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="9">
+        <v>0</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" s="9">
+        <v>9</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="18">
+      <c r="A98" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="8"/>
+    </row>
+    <row r="99" spans="1:5" ht="18">
+      <c r="A99" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="8"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D96" s="9">
-        <v>135</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="18">
-      <c r="A97" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="8"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D98" s="9">
-        <v>0</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" s="9">
-        <v>0</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="18">
-      <c r="A100" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="8"/>
+      <c r="B100" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="9">
+        <v>3</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D101" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>18</v>
@@ -2868,96 +2908,284 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="9">
+        <v>0</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="9">
+        <v>0</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="9">
+        <v>0</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="9">
+        <v>3</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" s="9">
+      <c r="C106" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="9">
+        <v>135</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="18">
+      <c r="A107" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="8"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" s="9">
+        <v>0</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109" s="9">
+        <v>0</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="18">
+      <c r="A110" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="8"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="9">
+        <v>0</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="9">
         <v>8</v>
       </c>
-      <c r="E102" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="18">
-      <c r="A103" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="8"/>
-    </row>
-    <row r="104" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A104" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-    </row>
-    <row r="105" spans="1:5" ht="24.95" customHeight="1">
-      <c r="B105" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-    </row>
-    <row r="106" spans="1:5" ht="24.95" customHeight="1">
-      <c r="B106" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-    </row>
-    <row r="107" spans="1:5" ht="24.95" customHeight="1">
-      <c r="B107" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
+      <c r="E112" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D113" s="9">
+        <v>8</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="9">
+        <v>0</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="18">
+      <c r="A115" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="8"/>
+    </row>
+    <row r="116" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A116" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+    </row>
+    <row r="117" spans="1:5" ht="24.95" customHeight="1">
+      <c r="B117" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+    </row>
+    <row r="118" spans="1:5" ht="24.95" customHeight="1">
+      <c r="B118" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+    </row>
+    <row r="119" spans="1:5" ht="24.95" customHeight="1">
+      <c r="B119" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A61:E61"/>
     <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="C60:E60"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A24:E24"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
@@ -2966,6 +3194,6 @@
     <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>